--- a/uploads/Learning_Destination.xlsx
+++ b/uploads/Learning_Destination.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lincoln Uni\Computing\639\pj2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lincolnuniac-my.sharepoint.com/personal/jack_swannell_childrensuniversity_co_nz/Documents/Admin/IT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A854BB5-9063-446E-8A54-D697A06DF8A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{D50399F2-31E3-42CA-BB50-B2BE652A661A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{76E6F930-BF03-4F9F-82A8-8EDBBCD6DFCF}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0206F248-0706-4A9D-9D3A-F1C1380B0ADD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{0206F248-0706-4A9D-9D3A-F1C1380B0ADD}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
-    <sheet name="Approached" sheetId="2" r:id="rId2"/>
+    <sheet name="Appraoched" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,183 +35,186 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+  <si>
+    <t>LD Name</t>
+  </si>
+  <si>
+    <t>Contact Person</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Postal Address</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Web Address</t>
+  </si>
+  <si>
+    <t>Cost for member</t>
+  </si>
+  <si>
+    <t>Cost for member+adult</t>
+  </si>
+  <si>
+    <t>Initial Fb Promo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 Paperwork </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021 Paperwork </t>
+  </si>
+  <si>
+    <t>Orana Wildlife Park</t>
+  </si>
+  <si>
+    <t>Education and IT Manager</t>
+  </si>
+  <si>
+    <t>793 McLeans Island Road Christchurch</t>
+  </si>
+  <si>
+    <t>Canterbury</t>
+  </si>
+  <si>
+    <t>PO Box 5130 Christchurch 8542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.oranawildlifepark.co.nz </t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>Akaroa Library</t>
+  </si>
+  <si>
+    <t>Public Programmes Co-ordinator</t>
+  </si>
+  <si>
+    <t>2 Selwyn Avenue, Akaroa</t>
+  </si>
+  <si>
+    <t>PO Box 73045 Christchurch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ccc.govt.nz/ </t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Agreement first signed</t>
+  </si>
+  <si>
+    <t>ROV first signed</t>
+  </si>
+  <si>
+    <t>Poster sent</t>
+  </si>
+  <si>
+    <t>Logo sent</t>
+  </si>
+  <si>
+    <t>Photo provided</t>
+  </si>
   <si>
     <t>#</t>
   </si>
   <si>
+    <t xml:space="preserve">Mega Air </t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>106a Carmen Road, Christchurch</t>
+  </si>
+  <si>
+    <t>www.megaair.co.nz</t>
+  </si>
+  <si>
     <t>Active</t>
   </si>
   <si>
-    <t>LD Name</t>
-  </si>
-  <si>
-    <t>Contact Person</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Postal Address</t>
-  </si>
-  <si>
-    <t>Phone Number</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Web Address</t>
-  </si>
-  <si>
-    <t>Cost for member</t>
-  </si>
-  <si>
-    <t>Cost for member+adult</t>
-  </si>
-  <si>
-    <t>Agreement first signed</t>
-  </si>
-  <si>
-    <t>ROV first signed</t>
-  </si>
-  <si>
-    <t>Poster sent</t>
-  </si>
-  <si>
-    <t>Logo sent</t>
-  </si>
-  <si>
-    <t>Initial Fb Promo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020 Paperwork </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021 Paperwork </t>
-  </si>
-  <si>
-    <t>Photo provided</t>
-  </si>
-  <si>
-    <t>Orana Wildlife Park</t>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Pending = waiting on 2021 paperwok</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>Adrenalin Forest</t>
+  </si>
+  <si>
+    <t>Christchurch</t>
+  </si>
+  <si>
+    <t>Riverside Kitchen</t>
+  </si>
+  <si>
+    <t>Paperwork sent</t>
+  </si>
+  <si>
+    <t>Emailed 18/9</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Chased 24/6</t>
+  </si>
+  <si>
+    <t>Emailed 8/3</t>
+  </si>
+  <si>
+    <t>Test@ccc.com</t>
+  </si>
+  <si>
+    <t>Chased 21/2</t>
+  </si>
+  <si>
+    <t>Arts in Oxford</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Test@bbb.com</t>
+  </si>
+  <si>
+    <t>Emailed 26/8 to set up meeting</t>
   </si>
   <si>
     <t>XXXX</t>
   </si>
   <si>
-    <t>Education and IT Manager</t>
-  </si>
-  <si>
-    <t>793 McLeans Island Road Christchurch</t>
-  </si>
-  <si>
-    <t>Canterbury</t>
-  </si>
-  <si>
-    <t>PO Box 5130 Christchurch 8542</t>
-  </si>
-  <si>
     <t>XXX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.oranawildlifepark.co.nz </t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Received</t>
-  </si>
-  <si>
-    <t>Akaroa Library</t>
-  </si>
-  <si>
-    <t>Public Programmes Co-ordinator</t>
-  </si>
-  <si>
-    <t>2 Selwyn Avenue, Akaroa</t>
-  </si>
-  <si>
-    <t>PO Box 73045 Christchurch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ccc.govt.nz/ </t>
-  </si>
-  <si>
-    <t>Free</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mega Air </t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>106a Carmen Road, Christchurch</t>
-  </si>
-  <si>
-    <t>www.megaair.co.nz</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Paperwork sent</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>NOTES</t>
-  </si>
-  <si>
-    <t>Adrenalin Forest</t>
-  </si>
-  <si>
-    <t>Christchurch</t>
-  </si>
-  <si>
-    <t>Emailed 18/9</t>
-  </si>
-  <si>
-    <t>Test@ccc.com</t>
-  </si>
-  <si>
-    <t>Chased 21/2</t>
-  </si>
-  <si>
-    <t>Riverside Kitchen</t>
-  </si>
-  <si>
-    <t>Emailed 8/3</t>
-  </si>
-  <si>
-    <t>Chased 24/6</t>
-  </si>
-  <si>
-    <t>Arts in Oxford</t>
-  </si>
-  <si>
-    <t>Oxford</t>
-  </si>
-  <si>
-    <t>Test@bbb.com</t>
-  </si>
-  <si>
-    <t>Emailed 26/8 to set up meeting</t>
   </si>
 </sst>
 </file>
@@ -219,8 +222,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -320,10 +323,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -346,16 +349,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -371,7 +374,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -667,131 +670,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791F51D9-996C-4ABD-8E9B-E23A6E46ED45}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" customWidth="1"/>
-    <col min="12" max="13" width="12.33203125" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" customWidth="1"/>
-    <col min="18" max="18" width="10.5546875" customWidth="1"/>
-    <col min="19" max="19" width="12.109375" customWidth="1"/>
-    <col min="20" max="20" width="13.44140625" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" customWidth="1"/>
+    <col min="9" max="9" width="17.08984375" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" customWidth="1"/>
+    <col min="12" max="13" width="12.26953125" customWidth="1"/>
+    <col min="14" max="14" width="14.6328125" customWidth="1"/>
+    <col min="15" max="15" width="10.54296875" customWidth="1"/>
+    <col min="18" max="18" width="10.6328125" customWidth="1"/>
+    <col min="19" max="19" width="13.36328125" customWidth="1"/>
+    <col min="20" max="20" width="12.7265625" customWidth="1"/>
+    <col min="21" max="21" width="12.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="56" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="U1" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L2" s="4">
         <v>9.5</v>
@@ -806,61 +806,61 @@
         <v>43501</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N3" s="6">
         <v>43503</v>
@@ -869,46 +869,46 @@
         <v>43503</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10">
         <v>29</v>
       </c>
       <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="G4" s="11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L4" s="5">
         <v>15</v>
@@ -923,28 +923,30 @@
         <v>43181</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -955,7 +957,6 @@
     <hyperlink ref="K4" r:id="rId2" xr:uid="{927146F4-935B-4192-BDB1-9C8962EF4929}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -964,80 +965,80 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.36328125" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>46</v>
       </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>55</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>57</v>
-      </c>
-      <c r="E4" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1048,232 +1049,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100840061F9DC321B428F6D5C5DB03A1A63" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="218d44522063d3e139a84098689cd5f5">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="180eb382-7469-4407-b6a7-9e3c553560d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7bb75e2003902cea2fab401753615262" ns2:_="">
-    <xsd:import namespace="180eb382-7469-4407-b6a7-9e3c553560d8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="180eb382-7469-4407-b6a7-9e3c553560d8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1ECE128-4AFA-4D9A-A791-7A9B74B8B681}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="180eb382-7469-4407-b6a7-9e3c553560d8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4880AF2-56D8-434C-A4B7-226F046B614C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8631EF32-6A38-459F-AD24-E2400611BAC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/uploads/Learning_Destination.xlsx
+++ b/uploads/Learning_Destination.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lincolnuniac-my.sharepoint.com/personal/jack_swannell_childrensuniversity_co_nz/Documents/Admin/IT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lincoln Uni\Computing\639\pj2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{D50399F2-31E3-42CA-BB50-B2BE652A661A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{76E6F930-BF03-4F9F-82A8-8EDBBCD6DFCF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4515144-E00B-46E5-8FD8-AE8191609DEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{0206F248-0706-4A9D-9D3A-F1C1380B0ADD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0206F248-0706-4A9D-9D3A-F1C1380B0ADD}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
-    <sheet name="Appraoched" sheetId="2" r:id="rId2"/>
+    <sheet name="Approached" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,6 +37,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
     <t>LD Name</t>
   </si>
   <si>
@@ -70,6 +76,18 @@
     <t>Cost for member+adult</t>
   </si>
   <si>
+    <t>Agreement first signed</t>
+  </si>
+  <si>
+    <t>ROV first signed</t>
+  </si>
+  <si>
+    <t>Poster sent</t>
+  </si>
+  <si>
+    <t>Logo sent</t>
+  </si>
+  <si>
     <t>Initial Fb Promo</t>
   </si>
   <si>
@@ -79,9 +97,15 @@
     <t xml:space="preserve">2021 Paperwork </t>
   </si>
   <si>
+    <t>Photo provided</t>
+  </si>
+  <si>
     <t>Orana Wildlife Park</t>
   </si>
   <si>
+    <t>XXXX</t>
+  </si>
+  <si>
     <t>Education and IT Manager</t>
   </si>
   <si>
@@ -94,6 +118,9 @@
     <t>PO Box 5130 Christchurch 8542</t>
   </si>
   <si>
+    <t>XXX</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://www.oranawildlifepark.co.nz </t>
   </si>
   <si>
@@ -121,51 +148,33 @@
     <t>Free</t>
   </si>
   <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mega Air </t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>106a Carmen Road, Christchurch</t>
+  </si>
+  <si>
+    <t>www.megaair.co.nz</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Agreement first signed</t>
-  </si>
-  <si>
-    <t>ROV first signed</t>
-  </si>
-  <si>
-    <t>Poster sent</t>
-  </si>
-  <si>
-    <t>Logo sent</t>
-  </si>
-  <si>
-    <t>Photo provided</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mega Air </t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>106a Carmen Road, Christchurch</t>
-  </si>
-  <si>
-    <t>www.megaair.co.nz</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>Pending = waiting on 2021 paperwok</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
+    <t>Paperwork sent</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
     <t>NOTES</t>
   </si>
   <si>
@@ -175,30 +184,24 @@
     <t>Christchurch</t>
   </si>
   <si>
+    <t>Emailed 18/9</t>
+  </si>
+  <si>
+    <t>Test@ccc.com</t>
+  </si>
+  <si>
+    <t>Chased 21/2</t>
+  </si>
+  <si>
     <t>Riverside Kitchen</t>
   </si>
   <si>
-    <t>Paperwork sent</t>
-  </si>
-  <si>
-    <t>Emailed 18/9</t>
-  </si>
-  <si>
-    <t>Contact</t>
+    <t>Emailed 8/3</t>
   </si>
   <si>
     <t>Chased 24/6</t>
   </si>
   <si>
-    <t>Emailed 8/3</t>
-  </si>
-  <si>
-    <t>Test@ccc.com</t>
-  </si>
-  <si>
-    <t>Chased 21/2</t>
-  </si>
-  <si>
     <t>Arts in Oxford</t>
   </si>
   <si>
@@ -211,10 +214,7 @@
     <t>Emailed 26/8 to set up meeting</t>
   </si>
   <si>
-    <t>XXXX</t>
-  </si>
-  <si>
-    <t>XXX</t>
+    <t>Note</t>
   </si>
 </sst>
 </file>
@@ -222,8 +222,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -323,10 +323,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -349,16 +349,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -374,7 +374,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -670,128 +670,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791F51D9-996C-4ABD-8E9B-E23A6E46ED45}">
-  <dimension ref="A1:U11"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.7265625" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" customWidth="1"/>
-    <col min="8" max="8" width="11.6328125" customWidth="1"/>
-    <col min="9" max="9" width="17.08984375" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" customWidth="1"/>
-    <col min="12" max="13" width="12.26953125" customWidth="1"/>
-    <col min="14" max="14" width="14.6328125" customWidth="1"/>
-    <col min="15" max="15" width="10.54296875" customWidth="1"/>
-    <col min="18" max="18" width="10.6328125" customWidth="1"/>
-    <col min="19" max="19" width="13.36328125" customWidth="1"/>
-    <col min="20" max="20" width="12.7265625" customWidth="1"/>
-    <col min="21" max="21" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" customWidth="1"/>
+    <col min="12" max="13" width="12.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" customWidth="1"/>
+    <col min="18" max="18" width="10.5546875" customWidth="1"/>
+    <col min="19" max="20" width="12.109375" customWidth="1"/>
+    <col min="21" max="21" width="13.44140625" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="56" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="L2" s="4">
         <v>9.5</v>
@@ -806,61 +812,62 @@
         <v>43501</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="T2" s="2"/>
       <c r="U2" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N3" s="6">
         <v>43503</v>
@@ -869,46 +876,47 @@
         <v>43503</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="T3" s="2"/>
       <c r="U3" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="11" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>29</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="G4" s="11" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L4" s="5">
         <v>15</v>
@@ -923,30 +931,29 @@
         <v>43181</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="13"/>
+      <c r="U4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -957,6 +964,7 @@
     <hyperlink ref="K4" r:id="rId2" xr:uid="{927146F4-935B-4192-BDB1-9C8962EF4929}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -965,80 +973,80 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.36328125" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1049,4 +1057,232 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100840061F9DC321B428F6D5C5DB03A1A63" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="218d44522063d3e139a84098689cd5f5">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="180eb382-7469-4407-b6a7-9e3c553560d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7bb75e2003902cea2fab401753615262" ns2:_="">
+    <xsd:import namespace="180eb382-7469-4407-b6a7-9e3c553560d8"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="180eb382-7469-4407-b6a7-9e3c553560d8" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8631EF32-6A38-459F-AD24-E2400611BAC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4880AF2-56D8-434C-A4B7-226F046B614C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1ECE128-4AFA-4D9A-A791-7A9B74B8B681}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="180eb382-7469-4407-b6a7-9e3c553560d8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/uploads/Learning_Destination.xlsx
+++ b/uploads/Learning_Destination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lincoln Uni\Computing\639\pj2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4515144-E00B-46E5-8FD8-AE8191609DEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0692FE-061E-4840-9240-E3B6E6638637}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0206F248-0706-4A9D-9D3A-F1C1380B0ADD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>#</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.ccc.govt.nz/ </t>
-  </si>
-  <si>
-    <t>Free</t>
   </si>
   <si>
     <t>Pending</t>
@@ -675,8 +672,8 @@
   </sheetPr>
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,7 +753,7 @@
         <v>20</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>18</v>
@@ -863,11 +860,11 @@
       <c r="K3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>36</v>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0</v>
       </c>
       <c r="N3" s="6">
         <v>43503</v>
@@ -900,23 +897,23 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L4" s="5">
         <v>15</v>
@@ -934,7 +931,7 @@
         <v>29</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>29</v>
@@ -947,7 +944,7 @@
         <v>30</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -964,7 +961,7 @@
     <hyperlink ref="K4" r:id="rId2" xr:uid="{927146F4-935B-4192-BDB1-9C8962EF4929}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="landscape"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -989,64 +986,64 @@
         <v>2</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>49</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
         <v>52</v>
       </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>53</v>
-      </c>
-      <c r="E3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
         <v>55</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>57</v>
-      </c>
-      <c r="E4" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1060,21 +1057,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100840061F9DC321B428F6D5C5DB03A1A63" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="218d44522063d3e139a84098689cd5f5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="180eb382-7469-4407-b6a7-9e3c553560d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7bb75e2003902cea2fab401753615262" ns2:_="">
     <xsd:import namespace="180eb382-7469-4407-b6a7-9e3c553560d8"/>
@@ -1252,24 +1234,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8631EF32-6A38-459F-AD24-E2400611BAC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4880AF2-56D8-434C-A4B7-226F046B614C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1ECE128-4AFA-4D9A-A791-7A9B74B8B681}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1285,4 +1265,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4880AF2-56D8-434C-A4B7-226F046B614C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8631EF32-6A38-459F-AD24-E2400611BAC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/uploads/Learning_Destination.xlsx
+++ b/uploads/Learning_Destination.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lincoln Uni\Computing\639\pj2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0692FE-061E-4840-9240-E3B6E6638637}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B481FCE8-6496-43CF-9930-448A93300417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0206F248-0706-4A9D-9D3A-F1C1380B0ADD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>#</t>
   </si>
@@ -91,12 +91,6 @@
     <t>Initial Fb Promo</t>
   </si>
   <si>
-    <t xml:space="preserve">2020 Paperwork </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021 Paperwork </t>
-  </si>
-  <si>
     <t>Photo provided</t>
   </si>
   <si>
@@ -212,6 +206,9 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>Paperwork</t>
   </si>
 </sst>
 </file>
@@ -313,7 +310,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -348,6 +345,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -670,10 +670,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -694,271 +694,298 @@
     <col min="22" max="22" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="T2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" s="1">
+        <v>2020</v>
+      </c>
+      <c r="V2" s="1">
+        <v>2021</v>
+      </c>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="M2" s="5">
-        <v>46</v>
-      </c>
-      <c r="N2" s="6">
-        <v>43501</v>
-      </c>
-      <c r="O2" s="6">
-        <v>43501</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="M3" s="5">
+        <v>46</v>
+      </c>
+      <c r="N3" s="6">
+        <v>43501</v>
+      </c>
+      <c r="O3" s="6">
+        <v>43501</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="Q3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="9">
-        <v>0</v>
-      </c>
-      <c r="M3" s="9">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <v>43503</v>
-      </c>
-      <c r="O3" s="6">
-        <v>43503</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="R3" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T3" s="2"/>
       <c r="U3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>30</v>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>43503</v>
+      </c>
+      <c r="O4" s="6">
+        <v>43503</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+    <row r="5" spans="1:35" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>29</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="F5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="G5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="L5" s="5">
+        <v>15</v>
+      </c>
+      <c r="M5" s="5">
+        <v>15</v>
+      </c>
+      <c r="N5" s="6">
+        <v>43546</v>
+      </c>
+      <c r="O5" s="6">
+        <v>43181</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="5">
-        <v>15</v>
-      </c>
-      <c r="M4" s="5">
-        <v>15</v>
-      </c>
-      <c r="N4" s="6">
-        <v>43546</v>
-      </c>
-      <c r="O4" s="6">
-        <v>43181</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="13"/>
-      <c r="U4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>41</v>
+      <c r="R5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="13"/>
+      <c r="U5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="U6" s="15"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{066D7A64-2A15-493A-89F9-E21854D10CBE}"/>
-    <hyperlink ref="K4" r:id="rId2" xr:uid="{927146F4-935B-4192-BDB1-9C8962EF4929}"/>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{066D7A64-2A15-493A-89F9-E21854D10CBE}"/>
+    <hyperlink ref="K5" r:id="rId2" xr:uid="{927146F4-935B-4192-BDB1-9C8962EF4929}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId3"/>
@@ -986,64 +1013,64 @@
         <v>2</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/Learning_Destination.xlsx
+++ b/uploads/Learning_Destination.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lincoln Uni\Computing\639\pj2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lincolnuniac-my.sharepoint.com/personal/jack_swannell_childrensuniversity_co_nz/Documents/Admin/IT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B481FCE8-6496-43CF-9930-448A93300417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{D50399F2-31E3-42CA-BB50-B2BE652A661A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECF7C241-C36C-48C3-8031-EEA64B109D6D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0206F248-0706-4A9D-9D3A-F1C1380B0ADD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{0206F248-0706-4A9D-9D3A-F1C1380B0ADD}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
-    <sheet name="Approached" sheetId="2" r:id="rId2"/>
+    <sheet name="Appraoched" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
   <si>
     <t>#</t>
   </si>
@@ -91,6 +91,12 @@
     <t>Initial Fb Promo</t>
   </si>
   <si>
+    <t xml:space="preserve">2020 Paperwork </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021 Paperwork </t>
+  </si>
+  <si>
     <t>Photo provided</t>
   </si>
   <si>
@@ -139,6 +145,9 @@
     <t xml:space="preserve">https://www.ccc.govt.nz/ </t>
   </si>
   <si>
+    <t>Free</t>
+  </si>
+  <si>
     <t>Pending</t>
   </si>
   <si>
@@ -157,6 +166,9 @@
     <t>No</t>
   </si>
   <si>
+    <t>Pending = waiting on 2021 paperwok</t>
+  </si>
+  <si>
     <t>Location</t>
   </si>
   <si>
@@ -203,12 +215,6 @@
   </si>
   <si>
     <t>Emailed 26/8 to set up meeting</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Paperwork</t>
   </si>
 </sst>
 </file>
@@ -219,7 +225,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -349,13 +355,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -371,7 +374,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -670,325 +673,294 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" customWidth="1"/>
-    <col min="12" max="13" width="12.33203125" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" customWidth="1"/>
-    <col min="18" max="18" width="10.5546875" customWidth="1"/>
-    <col min="19" max="20" width="12.109375" customWidth="1"/>
-    <col min="21" max="21" width="13.44140625" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="56.1" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="U1" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:21">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="M2" s="5">
+        <v>46</v>
+      </c>
+      <c r="N2" s="6">
+        <v>43501</v>
+      </c>
+      <c r="O2" s="6">
+        <v>43501</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="10">
         <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U2" s="1">
-        <v>2020</v>
-      </c>
-      <c r="V2" s="1">
-        <v>2021</v>
-      </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="6">
+        <v>43503</v>
+      </c>
+      <c r="O3" s="6">
+        <v>43503</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="10">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="M3" s="5">
-        <v>46</v>
-      </c>
-      <c r="N3" s="6">
-        <v>43501</v>
-      </c>
-      <c r="O3" s="6">
-        <v>43501</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="2"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="5">
+        <v>15</v>
+      </c>
+      <c r="M4" s="5">
+        <v>15</v>
+      </c>
+      <c r="N4" s="6">
+        <v>43546</v>
+      </c>
+      <c r="O4" s="6">
+        <v>43181</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
-        <v>43503</v>
-      </c>
-      <c r="O4" s="6">
-        <v>43503</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="5">
-        <v>15</v>
-      </c>
-      <c r="M5" s="5">
-        <v>15</v>
-      </c>
-      <c r="N5" s="6">
-        <v>43546</v>
-      </c>
-      <c r="O5" s="6">
-        <v>43181</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" s="13"/>
-      <c r="U5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="U6" s="15"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+    <row r="11" spans="1:21">
+      <c r="B11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" xr:uid="{066D7A64-2A15-493A-89F9-E21854D10CBE}"/>
-    <hyperlink ref="K5" r:id="rId2" xr:uid="{927146F4-935B-4192-BDB1-9C8962EF4929}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{066D7A64-2A15-493A-89F9-E21854D10CBE}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{927146F4-935B-4192-BDB1-9C8962EF4929}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="landscape" r:id="rId3"/>
+  <pageSetup paperSize="8" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -997,80 +969,80 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" thickBot="1">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1084,8 +1056,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100840061F9DC321B428F6D5C5DB03A1A63" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="218d44522063d3e139a84098689cd5f5">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="180eb382-7469-4407-b6a7-9e3c553560d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7bb75e2003902cea2fab401753615262" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100840061F9DC321B428F6D5C5DB03A1A63" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4ef34e0891b7e78f128c981ac5712e9f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="180eb382-7469-4407-b6a7-9e3c553560d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="017260f72885d0d62c8e4e105bf0de37" ns2:_="">
     <xsd:import namespace="180eb382-7469-4407-b6a7-9e3c553560d8"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -1102,6 +1074,7 @@
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1159,6 +1132,11 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1277,36 +1255,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1ECE128-4AFA-4D9A-A791-7A9B74B8B681}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="180eb382-7469-4407-b6a7-9e3c553560d8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0BDE9DB-779C-473D-95AA-A72458A6F084}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4880AF2-56D8-434C-A4B7-226F046B614C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4880AF2-56D8-434C-A4B7-226F046B614C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8631EF32-6A38-459F-AD24-E2400611BAC5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8631EF32-6A38-459F-AD24-E2400611BAC5}"/>
 </file>